--- a/products/2.xlsx
+++ b/products/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,19 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Требуется КУРЬЕР </t>
   </si>
   <si>
     <t xml:space="preserve">Бельгийский шоколад 2 плитки </t>
   </si>
+  <si>
+    <t xml:space="preserve">Бельгийский шоколад 3 плитки </t>
+  </si>
+  <si>
+    <t>0.33 унции бельгийских камней</t>
+  </si>
+  <si>
+    <t>0.5 унции бельгийских камней</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,26 +343,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -373,6 +382,39 @@
       </c>
       <c r="C2">
         <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5500</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2200</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/products/2.xlsx
+++ b/products/2.xlsx
@@ -19,21 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">Требуется КУРЬЕР </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бельгийский шоколад 2 плитки </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бельгийский шоколад 3 плитки </t>
-  </si>
-  <si>
-    <t>0.33 унции бельгийских камней</t>
-  </si>
-  <si>
-    <t>0.5 унции бельгийских камней</t>
   </si>
 </sst>
 </file>
@@ -351,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,50 +361,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4250</v>
-      </c>
-      <c r="C2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5500</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2200</v>
-      </c>
-      <c r="C4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
